--- a/Schedule Template/8-team-template.xlsx
+++ b/Schedule Template/8-team-template.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahngu\Desktop\Game Data\Schedule Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anthony\Desktop\NCAA Files\League\Schedule Template\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3421A5-1945-4955-A2E2-51AED76596BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FD618B-4114-4D0C-8195-C1497465A4E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21525" yWindow="2730" windowWidth="28395" windowHeight="17580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3072" windowWidth="23232" windowHeight="10008" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" r:id="rId1"/>
     <sheet name="Lookup" sheetId="2" r:id="rId2"/>
     <sheet name="All teams" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="216">
   <si>
     <t>GTOD</t>
   </si>
@@ -425,6 +425,261 @@
   </si>
   <si>
     <t>Air Force</t>
+  </si>
+  <si>
+    <t>Army</t>
+  </si>
+  <si>
+    <t>Idaho</t>
+  </si>
+  <si>
+    <t>Navy</t>
+  </si>
+  <si>
+    <t>Alabama A&amp;M</t>
+  </si>
+  <si>
+    <t>Alabama State</t>
+  </si>
+  <si>
+    <t>Alcorn State</t>
+  </si>
+  <si>
+    <t>Ark - Pine Bluff</t>
+  </si>
+  <si>
+    <t>Bethune-Cookman</t>
+  </si>
+  <si>
+    <t>Brown</t>
+  </si>
+  <si>
+    <t>Columbia</t>
+  </si>
+  <si>
+    <t>Cornell</t>
+  </si>
+  <si>
+    <t>Dartmouth</t>
+  </si>
+  <si>
+    <t>Delaware State</t>
+  </si>
+  <si>
+    <t>Florida A&amp;M</t>
+  </si>
+  <si>
+    <t>Grambling State</t>
+  </si>
+  <si>
+    <t>Hampton</t>
+  </si>
+  <si>
+    <t>Harvard</t>
+  </si>
+  <si>
+    <t>Howard</t>
+  </si>
+  <si>
+    <t>Jackson State</t>
+  </si>
+  <si>
+    <t>Miss Valley State</t>
+  </si>
+  <si>
+    <t>Morgan State</t>
+  </si>
+  <si>
+    <t>Norfolk State</t>
+  </si>
+  <si>
+    <t>NC A&amp;T State</t>
+  </si>
+  <si>
+    <t>Penn</t>
+  </si>
+  <si>
+    <t>Prairie View A&amp;M</t>
+  </si>
+  <si>
+    <t>Princeton</t>
+  </si>
+  <si>
+    <t>S Carolina State</t>
+  </si>
+  <si>
+    <t>Southern</t>
+  </si>
+  <si>
+    <t>Texas Southern</t>
+  </si>
+  <si>
+    <t>Yale</t>
+  </si>
+  <si>
+    <t>Delaware</t>
+  </si>
+  <si>
+    <t>James Madison</t>
+  </si>
+  <si>
+    <t>Maine</t>
+  </si>
+  <si>
+    <t>New Hampshire</t>
+  </si>
+  <si>
+    <t>Rhode Island</t>
+  </si>
+  <si>
+    <t>Richmond</t>
+  </si>
+  <si>
+    <t>Villanova</t>
+  </si>
+  <si>
+    <t>William and Mary</t>
+  </si>
+  <si>
+    <t>The Citadel</t>
+  </si>
+  <si>
+    <t>Elon</t>
+  </si>
+  <si>
+    <t>Furman</t>
+  </si>
+  <si>
+    <t>Georgia Southern</t>
+  </si>
+  <si>
+    <t>Chattanooga</t>
+  </si>
+  <si>
+    <t>Western Carolina</t>
+  </si>
+  <si>
+    <t>Wofford</t>
+  </si>
+  <si>
+    <t>E Washington</t>
+  </si>
+  <si>
+    <t>Idaho State</t>
+  </si>
+  <si>
+    <t>Montana</t>
+  </si>
+  <si>
+    <t>Montana State</t>
+  </si>
+  <si>
+    <t>Northern Arizona</t>
+  </si>
+  <si>
+    <t>Portland State</t>
+  </si>
+  <si>
+    <t>Sacramento State</t>
+  </si>
+  <si>
+    <t>Weber State</t>
+  </si>
+  <si>
+    <t>Illinois State</t>
+  </si>
+  <si>
+    <t>Indiana State</t>
+  </si>
+  <si>
+    <t>UNI</t>
+  </si>
+  <si>
+    <t>Southern Illinois</t>
+  </si>
+  <si>
+    <t>SMS</t>
+  </si>
+  <si>
+    <t>Western Illinois</t>
+  </si>
+  <si>
+    <t>Youngstown State</t>
+  </si>
+  <si>
+    <t>McNeese State</t>
+  </si>
+  <si>
+    <t>Northwestern St</t>
+  </si>
+  <si>
+    <t>Nicholls State</t>
+  </si>
+  <si>
+    <t>Stephen F. Austin</t>
+  </si>
+  <si>
+    <t>Sam Houston St</t>
+  </si>
+  <si>
+    <t>Eastern Illinois</t>
+  </si>
+  <si>
+    <t>Murray State</t>
+  </si>
+  <si>
+    <t>Eastern Kentucky</t>
+  </si>
+  <si>
+    <t>SE Missouri St</t>
+  </si>
+  <si>
+    <t>Jacksonville State</t>
+  </si>
+  <si>
+    <t>Tennessee Tech</t>
+  </si>
+  <si>
+    <t>Tennessee State</t>
+  </si>
+  <si>
+    <t>Samford</t>
+  </si>
+  <si>
+    <t>Tennessee-Martin</t>
+  </si>
+  <si>
+    <t>Towson</t>
+  </si>
+  <si>
+    <t>Southeastern</t>
+  </si>
+  <si>
+    <t>South Alabama</t>
+  </si>
+  <si>
+    <t>Liberty</t>
+  </si>
+  <si>
+    <t>Georgia State</t>
+  </si>
+  <si>
+    <t>UTSA</t>
+  </si>
+  <si>
+    <t>Old Dominion</t>
+  </si>
+  <si>
+    <t>Coastal Carolina</t>
+  </si>
+  <si>
+    <t>Charlotte</t>
+  </si>
+  <si>
+    <t>TEMPLATE</t>
+  </si>
+  <si>
+    <t>TEAM CHOICES</t>
   </si>
 </sst>
 </file>
@@ -935,9 +1190,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1297,13 +1555,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:P57"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:P1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1347,7 +1605,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>750</v>
       </c>
@@ -1374,12 +1632,12 @@
         <v>750</v>
       </c>
       <c r="K2">
-        <f>VLOOKUP(B2,Lookup!$D:$H,5,FALSE)</f>
-        <v>43</v>
+        <f>VLOOKUP(B2,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>83</v>
       </c>
       <c r="L2">
-        <f>VLOOKUP(C2,Lookup!$D:$H,5,FALSE)</f>
-        <v>7</v>
+        <f>VLOOKUP(C2,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>64</v>
       </c>
       <c r="M2">
         <f>D2</f>
@@ -1398,7 +1656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>750</v>
       </c>
@@ -1425,12 +1683,12 @@
         <v>750</v>
       </c>
       <c r="K3">
-        <f>VLOOKUP(B3,Lookup!$D:$H,5,FALSE)</f>
-        <v>85</v>
+        <f>VLOOKUP(B3,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>163</v>
       </c>
       <c r="L3">
-        <f>VLOOKUP(C3,Lookup!$D:$H,5,FALSE)</f>
-        <v>143</v>
+        <f>VLOOKUP(C3,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>79</v>
       </c>
       <c r="M3">
         <f t="shared" ref="M3:M57" si="1">D3</f>
@@ -1449,7 +1707,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1080</v>
       </c>
@@ -1476,12 +1734,12 @@
         <v>1080</v>
       </c>
       <c r="K4">
-        <f>VLOOKUP(B4,Lookup!$D:$H,5,FALSE)</f>
-        <v>96</v>
+        <f>VLOOKUP(B4,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>97</v>
       </c>
       <c r="L4">
-        <f>VLOOKUP(C4,Lookup!$D:$H,5,FALSE)</f>
-        <v>53</v>
+        <f>VLOOKUP(C4,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>105</v>
       </c>
       <c r="M4">
         <f t="shared" si="1"/>
@@ -1500,7 +1758,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>930</v>
       </c>
@@ -1527,12 +1785,12 @@
         <v>930</v>
       </c>
       <c r="K5">
-        <f>VLOOKUP(B5,Lookup!$D:$H,5,FALSE)</f>
-        <v>65</v>
+        <f>VLOOKUP(B5,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>60</v>
       </c>
       <c r="L5">
-        <f>VLOOKUP(C5,Lookup!$D:$H,5,FALSE)</f>
-        <v>43</v>
+        <f>VLOOKUP(C5,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>83</v>
       </c>
       <c r="M5">
         <f t="shared" si="1"/>
@@ -1551,7 +1809,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>750</v>
       </c>
@@ -1578,12 +1836,12 @@
         <v>750</v>
       </c>
       <c r="K6">
-        <f>VLOOKUP(B6,Lookup!$D:$H,5,FALSE)</f>
-        <v>85</v>
+        <f>VLOOKUP(B6,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>163</v>
       </c>
       <c r="L6">
-        <f>VLOOKUP(C6,Lookup!$D:$H,5,FALSE)</f>
-        <v>65</v>
+        <f>VLOOKUP(C6,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>60</v>
       </c>
       <c r="M6">
         <f t="shared" si="1"/>
@@ -1602,7 +1860,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1200</v>
       </c>
@@ -1629,12 +1887,12 @@
         <v>1200</v>
       </c>
       <c r="K7">
-        <f>VLOOKUP(B7,Lookup!$D:$H,5,FALSE)</f>
-        <v>143</v>
+        <f>VLOOKUP(B7,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>79</v>
       </c>
       <c r="L7">
-        <f>VLOOKUP(C7,Lookup!$D:$H,5,FALSE)</f>
-        <v>43</v>
+        <f>VLOOKUP(C7,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>83</v>
       </c>
       <c r="M7">
         <f t="shared" si="1"/>
@@ -1653,7 +1911,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1080</v>
       </c>
@@ -1680,12 +1938,12 @@
         <v>1080</v>
       </c>
       <c r="K8">
-        <f>VLOOKUP(B8,Lookup!$D:$H,5,FALSE)</f>
-        <v>53</v>
+        <f>VLOOKUP(B8,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>105</v>
       </c>
       <c r="L8">
-        <f>VLOOKUP(C8,Lookup!$D:$H,5,FALSE)</f>
-        <v>86</v>
+        <f>VLOOKUP(C8,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>218</v>
       </c>
       <c r="M8">
         <f t="shared" si="1"/>
@@ -1704,7 +1962,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>930</v>
       </c>
@@ -1731,12 +1989,12 @@
         <v>930</v>
       </c>
       <c r="K9">
-        <f>VLOOKUP(B9,Lookup!$D:$H,5,FALSE)</f>
-        <v>86</v>
+        <f>VLOOKUP(B9,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>218</v>
       </c>
       <c r="L9">
-        <f>VLOOKUP(C9,Lookup!$D:$H,5,FALSE)</f>
-        <v>143</v>
+        <f>VLOOKUP(C9,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>79</v>
       </c>
       <c r="M9">
         <f t="shared" si="1"/>
@@ -1755,7 +2013,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>750</v>
       </c>
@@ -1782,12 +2040,12 @@
         <v>750</v>
       </c>
       <c r="K10">
-        <f>VLOOKUP(B10,Lookup!$D:$H,5,FALSE)</f>
-        <v>65</v>
+        <f>VLOOKUP(B10,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>60</v>
       </c>
       <c r="L10">
-        <f>VLOOKUP(C10,Lookup!$D:$H,5,FALSE)</f>
-        <v>96</v>
+        <f>VLOOKUP(C10,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>97</v>
       </c>
       <c r="M10">
         <f t="shared" si="1"/>
@@ -1806,7 +2064,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>750</v>
       </c>
@@ -1833,12 +2091,12 @@
         <v>750</v>
       </c>
       <c r="K11">
-        <f>VLOOKUP(B11,Lookup!$D:$H,5,FALSE)</f>
-        <v>43</v>
+        <f>VLOOKUP(B11,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>83</v>
       </c>
       <c r="L11">
-        <f>VLOOKUP(C11,Lookup!$D:$H,5,FALSE)</f>
-        <v>85</v>
+        <f>VLOOKUP(C11,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>163</v>
       </c>
       <c r="M11">
         <f t="shared" si="1"/>
@@ -1857,7 +2115,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1080</v>
       </c>
@@ -1884,12 +2142,12 @@
         <v>1080</v>
       </c>
       <c r="K12">
-        <f>VLOOKUP(B12,Lookup!$D:$H,5,FALSE)</f>
-        <v>7</v>
+        <f>VLOOKUP(B12,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>64</v>
       </c>
       <c r="L12">
-        <f>VLOOKUP(C12,Lookup!$D:$H,5,FALSE)</f>
-        <v>53</v>
+        <f>VLOOKUP(C12,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>105</v>
       </c>
       <c r="M12">
         <f t="shared" si="1"/>
@@ -1908,7 +2166,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>930</v>
       </c>
@@ -1935,12 +2193,12 @@
         <v>930</v>
       </c>
       <c r="K13">
-        <f>VLOOKUP(B13,Lookup!$D:$H,5,FALSE)</f>
-        <v>86</v>
+        <f>VLOOKUP(B13,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>218</v>
       </c>
       <c r="L13">
-        <f>VLOOKUP(C13,Lookup!$D:$H,5,FALSE)</f>
-        <v>7</v>
+        <f>VLOOKUP(C13,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>64</v>
       </c>
       <c r="M13">
         <f t="shared" si="1"/>
@@ -1959,7 +2217,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1200</v>
       </c>
@@ -1986,12 +2244,12 @@
         <v>1200</v>
       </c>
       <c r="K14">
-        <f>VLOOKUP(B14,Lookup!$D:$H,5,FALSE)</f>
-        <v>53</v>
+        <f>VLOOKUP(B14,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>105</v>
       </c>
       <c r="L14">
-        <f>VLOOKUP(C14,Lookup!$D:$H,5,FALSE)</f>
-        <v>143</v>
+        <f>VLOOKUP(C14,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>79</v>
       </c>
       <c r="M14">
         <f t="shared" si="1"/>
@@ -2010,7 +2268,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1080</v>
       </c>
@@ -2037,12 +2295,12 @@
         <v>1080</v>
       </c>
       <c r="K15">
-        <f>VLOOKUP(B15,Lookup!$D:$H,5,FALSE)</f>
-        <v>96</v>
+        <f>VLOOKUP(B15,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>97</v>
       </c>
       <c r="L15">
-        <f>VLOOKUP(C15,Lookup!$D:$H,5,FALSE)</f>
-        <v>43</v>
+        <f>VLOOKUP(C15,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>83</v>
       </c>
       <c r="M15">
         <f t="shared" si="1"/>
@@ -2061,7 +2319,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>930</v>
       </c>
@@ -2088,12 +2346,12 @@
         <v>930</v>
       </c>
       <c r="K16">
-        <f>VLOOKUP(B16,Lookup!$D:$H,5,FALSE)</f>
-        <v>65</v>
+        <f>VLOOKUP(B16,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>60</v>
       </c>
       <c r="L16">
-        <f>VLOOKUP(C16,Lookup!$D:$H,5,FALSE)</f>
-        <v>86</v>
+        <f>VLOOKUP(C16,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>218</v>
       </c>
       <c r="M16">
         <f t="shared" si="1"/>
@@ -2112,7 +2370,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1200</v>
       </c>
@@ -2139,12 +2397,12 @@
         <v>1200</v>
       </c>
       <c r="K17">
-        <f>VLOOKUP(B17,Lookup!$D:$H,5,FALSE)</f>
-        <v>7</v>
+        <f>VLOOKUP(B17,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>64</v>
       </c>
       <c r="L17">
-        <f>VLOOKUP(C17,Lookup!$D:$H,5,FALSE)</f>
-        <v>85</v>
+        <f>VLOOKUP(C17,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>163</v>
       </c>
       <c r="M17">
         <f t="shared" si="1"/>
@@ -2163,7 +2421,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>750</v>
       </c>
@@ -2190,12 +2448,12 @@
         <v>750</v>
       </c>
       <c r="K18">
-        <f>VLOOKUP(B18,Lookup!$D:$H,5,FALSE)</f>
-        <v>86</v>
+        <f>VLOOKUP(B18,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>218</v>
       </c>
       <c r="L18">
-        <f>VLOOKUP(C18,Lookup!$D:$H,5,FALSE)</f>
-        <v>43</v>
+        <f>VLOOKUP(C18,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>83</v>
       </c>
       <c r="M18">
         <f t="shared" si="1"/>
@@ -2214,7 +2472,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1080</v>
       </c>
@@ -2241,12 +2499,12 @@
         <v>1080</v>
       </c>
       <c r="K19">
-        <f>VLOOKUP(B19,Lookup!$D:$H,5,FALSE)</f>
-        <v>53</v>
+        <f>VLOOKUP(B19,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>105</v>
       </c>
       <c r="L19">
-        <f>VLOOKUP(C19,Lookup!$D:$H,5,FALSE)</f>
-        <v>65</v>
+        <f>VLOOKUP(C19,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>60</v>
       </c>
       <c r="M19">
         <f t="shared" si="1"/>
@@ -2265,7 +2523,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1200</v>
       </c>
@@ -2292,12 +2550,12 @@
         <v>1200</v>
       </c>
       <c r="K20">
-        <f>VLOOKUP(B20,Lookup!$D:$H,5,FALSE)</f>
-        <v>143</v>
+        <f>VLOOKUP(B20,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>79</v>
       </c>
       <c r="L20">
-        <f>VLOOKUP(C20,Lookup!$D:$H,5,FALSE)</f>
-        <v>7</v>
+        <f>VLOOKUP(C20,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>64</v>
       </c>
       <c r="M20">
         <f t="shared" si="1"/>
@@ -2316,7 +2574,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>930</v>
       </c>
@@ -2343,12 +2601,12 @@
         <v>930</v>
       </c>
       <c r="K21">
-        <f>VLOOKUP(B21,Lookup!$D:$H,5,FALSE)</f>
-        <v>85</v>
+        <f>VLOOKUP(B21,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>163</v>
       </c>
       <c r="L21">
-        <f>VLOOKUP(C21,Lookup!$D:$H,5,FALSE)</f>
-        <v>96</v>
+        <f>VLOOKUP(C21,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>97</v>
       </c>
       <c r="M21">
         <f t="shared" si="1"/>
@@ -2367,7 +2625,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1080</v>
       </c>
@@ -2394,12 +2652,12 @@
         <v>1080</v>
       </c>
       <c r="K22">
-        <f>VLOOKUP(B22,Lookup!$D:$H,5,FALSE)</f>
-        <v>43</v>
+        <f>VLOOKUP(B22,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>83</v>
       </c>
       <c r="L22">
-        <f>VLOOKUP(C22,Lookup!$D:$H,5,FALSE)</f>
-        <v>53</v>
+        <f>VLOOKUP(C22,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>105</v>
       </c>
       <c r="M22">
         <f t="shared" si="1"/>
@@ -2418,7 +2676,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1200</v>
       </c>
@@ -2445,12 +2703,12 @@
         <v>1200</v>
       </c>
       <c r="K23">
-        <f>VLOOKUP(B23,Lookup!$D:$H,5,FALSE)</f>
-        <v>96</v>
+        <f>VLOOKUP(B23,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>97</v>
       </c>
       <c r="L23">
-        <f>VLOOKUP(C23,Lookup!$D:$H,5,FALSE)</f>
-        <v>7</v>
+        <f>VLOOKUP(C23,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>64</v>
       </c>
       <c r="M23">
         <f t="shared" si="1"/>
@@ -2469,7 +2727,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>930</v>
       </c>
@@ -2496,12 +2754,12 @@
         <v>930</v>
       </c>
       <c r="K24">
-        <f>VLOOKUP(B24,Lookup!$D:$H,5,FALSE)</f>
-        <v>85</v>
+        <f>VLOOKUP(B24,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>163</v>
       </c>
       <c r="L24">
-        <f>VLOOKUP(C24,Lookup!$D:$H,5,FALSE)</f>
-        <v>86</v>
+        <f>VLOOKUP(C24,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>218</v>
       </c>
       <c r="M24">
         <f t="shared" si="1"/>
@@ -2520,7 +2778,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1080</v>
       </c>
@@ -2547,12 +2805,12 @@
         <v>1080</v>
       </c>
       <c r="K25">
-        <f>VLOOKUP(B25,Lookup!$D:$H,5,FALSE)</f>
-        <v>65</v>
+        <f>VLOOKUP(B25,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>60</v>
       </c>
       <c r="L25">
-        <f>VLOOKUP(C25,Lookup!$D:$H,5,FALSE)</f>
-        <v>143</v>
+        <f>VLOOKUP(C25,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>79</v>
       </c>
       <c r="M25">
         <f t="shared" si="1"/>
@@ -2571,7 +2829,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1080</v>
       </c>
@@ -2598,12 +2856,12 @@
         <v>1080</v>
       </c>
       <c r="K26">
-        <f>VLOOKUP(B26,Lookup!$D:$H,5,FALSE)</f>
-        <v>7</v>
+        <f>VLOOKUP(B26,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>64</v>
       </c>
       <c r="L26">
-        <f>VLOOKUP(C26,Lookup!$D:$H,5,FALSE)</f>
-        <v>65</v>
+        <f>VLOOKUP(C26,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>60</v>
       </c>
       <c r="M26">
         <f t="shared" si="1"/>
@@ -2622,7 +2880,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1200</v>
       </c>
@@ -2649,12 +2907,12 @@
         <v>1200</v>
       </c>
       <c r="K27">
-        <f>VLOOKUP(B27,Lookup!$D:$H,5,FALSE)</f>
-        <v>86</v>
+        <f>VLOOKUP(B27,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>218</v>
       </c>
       <c r="L27">
-        <f>VLOOKUP(C27,Lookup!$D:$H,5,FALSE)</f>
-        <v>96</v>
+        <f>VLOOKUP(C27,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>97</v>
       </c>
       <c r="M27">
         <f t="shared" si="1"/>
@@ -2673,7 +2931,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>750</v>
       </c>
@@ -2700,12 +2958,12 @@
         <v>750</v>
       </c>
       <c r="K28">
-        <f>VLOOKUP(B28,Lookup!$D:$H,5,FALSE)</f>
-        <v>53</v>
+        <f>VLOOKUP(B28,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>105</v>
       </c>
       <c r="L28">
-        <f>VLOOKUP(C28,Lookup!$D:$H,5,FALSE)</f>
-        <v>85</v>
+        <f>VLOOKUP(C28,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>163</v>
       </c>
       <c r="M28">
         <f t="shared" si="1"/>
@@ -2724,7 +2982,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>750</v>
       </c>
@@ -2751,12 +3009,12 @@
         <v>750</v>
       </c>
       <c r="K29">
-        <f>VLOOKUP(B29,Lookup!$D:$H,5,FALSE)</f>
-        <v>7</v>
+        <f>VLOOKUP(B29,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>64</v>
       </c>
       <c r="L29">
-        <f>VLOOKUP(C29,Lookup!$D:$H,5,FALSE)</f>
-        <v>43</v>
+        <f>VLOOKUP(C29,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>83</v>
       </c>
       <c r="M29">
         <f t="shared" si="1"/>
@@ -2775,7 +3033,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>750</v>
       </c>
@@ -2802,12 +3060,12 @@
         <v>750</v>
       </c>
       <c r="K30">
-        <f>VLOOKUP(B30,Lookup!$D:$H,5,FALSE)</f>
-        <v>143</v>
+        <f>VLOOKUP(B30,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>79</v>
       </c>
       <c r="L30">
-        <f>VLOOKUP(C30,Lookup!$D:$H,5,FALSE)</f>
-        <v>85</v>
+        <f>VLOOKUP(C30,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>163</v>
       </c>
       <c r="M30">
         <f t="shared" si="1"/>
@@ -2826,7 +3084,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>750</v>
       </c>
@@ -2853,12 +3111,12 @@
         <v>750</v>
       </c>
       <c r="K31">
-        <f>VLOOKUP(B31,Lookup!$D:$H,5,FALSE)</f>
-        <v>53</v>
+        <f>VLOOKUP(B31,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>105</v>
       </c>
       <c r="L31">
-        <f>VLOOKUP(C31,Lookup!$D:$H,5,FALSE)</f>
-        <v>96</v>
+        <f>VLOOKUP(C31,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>97</v>
       </c>
       <c r="M31">
         <f t="shared" si="1"/>
@@ -2877,7 +3135,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1080</v>
       </c>
@@ -2904,12 +3162,12 @@
         <v>1080</v>
       </c>
       <c r="K32">
-        <f>VLOOKUP(B32,Lookup!$D:$H,5,FALSE)</f>
-        <v>96</v>
+        <f>VLOOKUP(B32,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>97</v>
       </c>
       <c r="L32">
-        <f>VLOOKUP(C32,Lookup!$D:$H,5,FALSE)</f>
-        <v>143</v>
+        <f>VLOOKUP(C32,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>79</v>
       </c>
       <c r="M32">
         <f t="shared" si="1"/>
@@ -2928,7 +3186,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1080</v>
       </c>
@@ -2955,12 +3213,12 @@
         <v>1080</v>
       </c>
       <c r="K33">
-        <f>VLOOKUP(B33,Lookup!$D:$H,5,FALSE)</f>
-        <v>43</v>
+        <f>VLOOKUP(B33,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>83</v>
       </c>
       <c r="L33">
-        <f>VLOOKUP(C33,Lookup!$D:$H,5,FALSE)</f>
-        <v>65</v>
+        <f>VLOOKUP(C33,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>60</v>
       </c>
       <c r="M33">
         <f t="shared" si="1"/>
@@ -2979,7 +3237,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1080</v>
       </c>
@@ -3006,12 +3264,12 @@
         <v>1080</v>
       </c>
       <c r="K34">
-        <f>VLOOKUP(B34,Lookup!$D:$H,5,FALSE)</f>
-        <v>65</v>
+        <f>VLOOKUP(B34,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>60</v>
       </c>
       <c r="L34">
-        <f>VLOOKUP(C34,Lookup!$D:$H,5,FALSE)</f>
-        <v>85</v>
+        <f>VLOOKUP(C34,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>163</v>
       </c>
       <c r="M34">
         <f t="shared" si="1"/>
@@ -3030,7 +3288,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>750</v>
       </c>
@@ -3057,12 +3315,12 @@
         <v>750</v>
       </c>
       <c r="K35">
-        <f>VLOOKUP(B35,Lookup!$D:$H,5,FALSE)</f>
-        <v>43</v>
+        <f>VLOOKUP(B35,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>83</v>
       </c>
       <c r="L35">
-        <f>VLOOKUP(C35,Lookup!$D:$H,5,FALSE)</f>
-        <v>143</v>
+        <f>VLOOKUP(C35,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>79</v>
       </c>
       <c r="M35">
         <f t="shared" si="1"/>
@@ -3081,7 +3339,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1200</v>
       </c>
@@ -3108,12 +3366,12 @@
         <v>1200</v>
       </c>
       <c r="K36">
-        <f>VLOOKUP(B36,Lookup!$D:$H,5,FALSE)</f>
-        <v>86</v>
+        <f>VLOOKUP(B36,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>218</v>
       </c>
       <c r="L36">
-        <f>VLOOKUP(C36,Lookup!$D:$H,5,FALSE)</f>
-        <v>53</v>
+        <f>VLOOKUP(C36,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>105</v>
       </c>
       <c r="M36">
         <f t="shared" si="1"/>
@@ -3132,7 +3390,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1080</v>
       </c>
@@ -3159,12 +3417,12 @@
         <v>1080</v>
       </c>
       <c r="K37">
-        <f>VLOOKUP(B37,Lookup!$D:$H,5,FALSE)</f>
-        <v>143</v>
+        <f>VLOOKUP(B37,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>79</v>
       </c>
       <c r="L37">
-        <f>VLOOKUP(C37,Lookup!$D:$H,5,FALSE)</f>
-        <v>86</v>
+        <f>VLOOKUP(C37,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>218</v>
       </c>
       <c r="M37">
         <f t="shared" si="1"/>
@@ -3183,7 +3441,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>930</v>
       </c>
@@ -3210,12 +3468,12 @@
         <v>930</v>
       </c>
       <c r="K38">
-        <f>VLOOKUP(B38,Lookup!$D:$H,5,FALSE)</f>
-        <v>96</v>
+        <f>VLOOKUP(B38,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>97</v>
       </c>
       <c r="L38">
-        <f>VLOOKUP(C38,Lookup!$D:$H,5,FALSE)</f>
-        <v>65</v>
+        <f>VLOOKUP(C38,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>60</v>
       </c>
       <c r="M38">
         <f t="shared" si="1"/>
@@ -3234,7 +3492,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>750</v>
       </c>
@@ -3261,12 +3519,12 @@
         <v>750</v>
       </c>
       <c r="K39">
-        <f>VLOOKUP(B39,Lookup!$D:$H,5,FALSE)</f>
-        <v>85</v>
+        <f>VLOOKUP(B39,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>163</v>
       </c>
       <c r="L39">
-        <f>VLOOKUP(C39,Lookup!$D:$H,5,FALSE)</f>
-        <v>43</v>
+        <f>VLOOKUP(C39,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>83</v>
       </c>
       <c r="M39">
         <f t="shared" si="1"/>
@@ -3285,7 +3543,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>750</v>
       </c>
@@ -3312,12 +3570,12 @@
         <v>750</v>
       </c>
       <c r="K40">
-        <f>VLOOKUP(B40,Lookup!$D:$H,5,FALSE)</f>
-        <v>53</v>
+        <f>VLOOKUP(B40,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>105</v>
       </c>
       <c r="L40">
-        <f>VLOOKUP(C40,Lookup!$D:$H,5,FALSE)</f>
-        <v>7</v>
+        <f>VLOOKUP(C40,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>64</v>
       </c>
       <c r="M40">
         <f t="shared" si="1"/>
@@ -3336,7 +3594,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1080</v>
       </c>
@@ -3363,12 +3621,12 @@
         <v>1080</v>
       </c>
       <c r="K41">
-        <f>VLOOKUP(B41,Lookup!$D:$H,5,FALSE)</f>
-        <v>7</v>
+        <f>VLOOKUP(B41,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>64</v>
       </c>
       <c r="L41">
-        <f>VLOOKUP(C41,Lookup!$D:$H,5,FALSE)</f>
-        <v>86</v>
+        <f>VLOOKUP(C41,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>218</v>
       </c>
       <c r="M41">
         <f t="shared" si="1"/>
@@ -3387,7 +3645,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>930</v>
       </c>
@@ -3414,12 +3672,12 @@
         <v>930</v>
       </c>
       <c r="K42">
-        <f>VLOOKUP(B42,Lookup!$D:$H,5,FALSE)</f>
-        <v>143</v>
+        <f>VLOOKUP(B42,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>79</v>
       </c>
       <c r="L42">
-        <f>VLOOKUP(C42,Lookup!$D:$H,5,FALSE)</f>
-        <v>53</v>
+        <f>VLOOKUP(C42,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>105</v>
       </c>
       <c r="M42">
         <f t="shared" si="1"/>
@@ -3438,7 +3696,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1200</v>
       </c>
@@ -3465,12 +3723,12 @@
         <v>1200</v>
       </c>
       <c r="K43">
-        <f>VLOOKUP(B43,Lookup!$D:$H,5,FALSE)</f>
-        <v>43</v>
+        <f>VLOOKUP(B43,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>83</v>
       </c>
       <c r="L43">
-        <f>VLOOKUP(C43,Lookup!$D:$H,5,FALSE)</f>
-        <v>96</v>
+        <f>VLOOKUP(C43,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>97</v>
       </c>
       <c r="M43">
         <f t="shared" si="1"/>
@@ -3489,7 +3747,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1080</v>
       </c>
@@ -3516,12 +3774,12 @@
         <v>1080</v>
       </c>
       <c r="K44">
-        <f>VLOOKUP(B44,Lookup!$D:$H,5,FALSE)</f>
-        <v>86</v>
+        <f>VLOOKUP(B44,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>218</v>
       </c>
       <c r="L44">
-        <f>VLOOKUP(C44,Lookup!$D:$H,5,FALSE)</f>
-        <v>65</v>
+        <f>VLOOKUP(C44,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>60</v>
       </c>
       <c r="M44">
         <f t="shared" si="1"/>
@@ -3540,7 +3798,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>930</v>
       </c>
@@ -3567,12 +3825,12 @@
         <v>930</v>
       </c>
       <c r="K45">
-        <f>VLOOKUP(B45,Lookup!$D:$H,5,FALSE)</f>
-        <v>85</v>
+        <f>VLOOKUP(B45,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>163</v>
       </c>
       <c r="L45">
-        <f>VLOOKUP(C45,Lookup!$D:$H,5,FALSE)</f>
-        <v>7</v>
+        <f>VLOOKUP(C45,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>64</v>
       </c>
       <c r="M45">
         <f t="shared" si="1"/>
@@ -3591,7 +3849,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1200</v>
       </c>
@@ -3618,12 +3876,12 @@
         <v>1200</v>
       </c>
       <c r="K46">
-        <f>VLOOKUP(B46,Lookup!$D:$H,5,FALSE)</f>
-        <v>43</v>
+        <f>VLOOKUP(B46,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>83</v>
       </c>
       <c r="L46">
-        <f>VLOOKUP(C46,Lookup!$D:$H,5,FALSE)</f>
-        <v>86</v>
+        <f>VLOOKUP(C46,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>218</v>
       </c>
       <c r="M46">
         <f t="shared" si="1"/>
@@ -3642,7 +3900,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>750</v>
       </c>
@@ -3669,12 +3927,12 @@
         <v>750</v>
       </c>
       <c r="K47">
-        <f>VLOOKUP(B47,Lookup!$D:$H,5,FALSE)</f>
-        <v>65</v>
+        <f>VLOOKUP(B47,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>60</v>
       </c>
       <c r="L47">
-        <f>VLOOKUP(C47,Lookup!$D:$H,5,FALSE)</f>
-        <v>53</v>
+        <f>VLOOKUP(C47,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>105</v>
       </c>
       <c r="M47">
         <f t="shared" si="1"/>
@@ -3693,7 +3951,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1080</v>
       </c>
@@ -3720,12 +3978,12 @@
         <v>1080</v>
       </c>
       <c r="K48">
-        <f>VLOOKUP(B48,Lookup!$D:$H,5,FALSE)</f>
-        <v>7</v>
+        <f>VLOOKUP(B48,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>64</v>
       </c>
       <c r="L48">
-        <f>VLOOKUP(C48,Lookup!$D:$H,5,FALSE)</f>
-        <v>143</v>
+        <f>VLOOKUP(C48,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>79</v>
       </c>
       <c r="M48">
         <f t="shared" si="1"/>
@@ -3744,7 +4002,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1200</v>
       </c>
@@ -3771,12 +4029,12 @@
         <v>1200</v>
       </c>
       <c r="K49">
-        <f>VLOOKUP(B49,Lookup!$D:$H,5,FALSE)</f>
-        <v>96</v>
+        <f>VLOOKUP(B49,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>97</v>
       </c>
       <c r="L49">
-        <f>VLOOKUP(C49,Lookup!$D:$H,5,FALSE)</f>
-        <v>85</v>
+        <f>VLOOKUP(C49,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>163</v>
       </c>
       <c r="M49">
         <f t="shared" si="1"/>
@@ -3795,7 +4053,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>930</v>
       </c>
@@ -3822,12 +4080,12 @@
         <v>930</v>
       </c>
       <c r="K50">
-        <f>VLOOKUP(B50,Lookup!$D:$H,5,FALSE)</f>
-        <v>53</v>
+        <f>VLOOKUP(B50,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>105</v>
       </c>
       <c r="L50">
-        <f>VLOOKUP(C50,Lookup!$D:$H,5,FALSE)</f>
-        <v>43</v>
+        <f>VLOOKUP(C50,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>83</v>
       </c>
       <c r="M50">
         <f t="shared" si="1"/>
@@ -3846,7 +4104,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1080</v>
       </c>
@@ -3873,12 +4131,12 @@
         <v>1080</v>
       </c>
       <c r="K51">
-        <f>VLOOKUP(B51,Lookup!$D:$H,5,FALSE)</f>
-        <v>7</v>
+        <f>VLOOKUP(B51,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>64</v>
       </c>
       <c r="L51">
-        <f>VLOOKUP(C51,Lookup!$D:$H,5,FALSE)</f>
-        <v>96</v>
+        <f>VLOOKUP(C51,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>97</v>
       </c>
       <c r="M51">
         <f t="shared" si="1"/>
@@ -3897,7 +4155,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1200</v>
       </c>
@@ -3924,12 +4182,12 @@
         <v>1200</v>
       </c>
       <c r="K52">
-        <f>VLOOKUP(B52,Lookup!$D:$H,5,FALSE)</f>
-        <v>86</v>
+        <f>VLOOKUP(B52,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>218</v>
       </c>
       <c r="L52">
-        <f>VLOOKUP(C52,Lookup!$D:$H,5,FALSE)</f>
-        <v>85</v>
+        <f>VLOOKUP(C52,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>163</v>
       </c>
       <c r="M52">
         <f t="shared" si="1"/>
@@ -3948,7 +4206,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>930</v>
       </c>
@@ -3975,12 +4233,12 @@
         <v>930</v>
       </c>
       <c r="K53">
-        <f>VLOOKUP(B53,Lookup!$D:$H,5,FALSE)</f>
-        <v>143</v>
+        <f>VLOOKUP(B53,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>79</v>
       </c>
       <c r="L53">
-        <f>VLOOKUP(C53,Lookup!$D:$H,5,FALSE)</f>
-        <v>65</v>
+        <f>VLOOKUP(C53,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>60</v>
       </c>
       <c r="M53">
         <f t="shared" si="1"/>
@@ -3999,7 +4257,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1080</v>
       </c>
@@ -4026,12 +4284,12 @@
         <v>1080</v>
       </c>
       <c r="K54">
-        <f>VLOOKUP(B54,Lookup!$D:$H,5,FALSE)</f>
-        <v>65</v>
+        <f>VLOOKUP(B54,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>60</v>
       </c>
       <c r="L54">
-        <f>VLOOKUP(C54,Lookup!$D:$H,5,FALSE)</f>
-        <v>7</v>
+        <f>VLOOKUP(C54,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>64</v>
       </c>
       <c r="M54">
         <f t="shared" si="1"/>
@@ -4050,7 +4308,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1080</v>
       </c>
@@ -4077,12 +4335,12 @@
         <v>1080</v>
       </c>
       <c r="K55">
-        <f>VLOOKUP(B55,Lookup!$D:$H,5,FALSE)</f>
-        <v>96</v>
+        <f>VLOOKUP(B55,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>97</v>
       </c>
       <c r="L55">
-        <f>VLOOKUP(C55,Lookup!$D:$H,5,FALSE)</f>
-        <v>86</v>
+        <f>VLOOKUP(C55,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>218</v>
       </c>
       <c r="M55">
         <f t="shared" si="1"/>
@@ -4101,7 +4359,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1200</v>
       </c>
@@ -4128,12 +4386,12 @@
         <v>1200</v>
       </c>
       <c r="K56">
-        <f>VLOOKUP(B56,Lookup!$D:$H,5,FALSE)</f>
-        <v>85</v>
+        <f>VLOOKUP(B56,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>163</v>
       </c>
       <c r="L56">
-        <f>VLOOKUP(C56,Lookup!$D:$H,5,FALSE)</f>
-        <v>53</v>
+        <f>VLOOKUP(C56,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>105</v>
       </c>
       <c r="M56">
         <f t="shared" si="1"/>
@@ -4152,7 +4410,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1080</v>
       </c>
@@ -4179,12 +4437,12 @@
         <v>1080</v>
       </c>
       <c r="K57">
-        <f>VLOOKUP(B57,Lookup!$D:$H,5,FALSE)</f>
-        <v>143</v>
+        <f>VLOOKUP(B57,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>79</v>
       </c>
       <c r="L57">
-        <f>VLOOKUP(C57,Lookup!$D:$H,5,FALSE)</f>
-        <v>96</v>
+        <f>VLOOKUP(C57,Lookup!$B$2:$C$92,2,FALSE)</f>
+        <v>97</v>
       </c>
       <c r="M57">
         <f t="shared" si="1"/>
@@ -4210,290 +4468,174 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:H9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A9"/>
+      <selection activeCell="D2" sqref="D2:D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <f>VLOOKUP(A2,'All teams'!G:H,2,FALSE)</f>
+        <v>53</v>
       </c>
       <c r="C2">
-        <v>8</v>
-      </c>
-      <c r="D2">
-        <f>VLOOKUP(A2,'All teams'!A:D,4,FALSE)</f>
-        <v>53</v>
-      </c>
-      <c r="E2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F2">
-        <v>13</v>
-      </c>
-      <c r="G2">
-        <v>15</v>
-      </c>
-      <c r="H2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(D2,'All teams'!G:H,2,FALSE)</f>
+        <v>64</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <f>VLOOKUP(A3,'All teams'!G:H,2,FALSE)</f>
+        <v>64</v>
       </c>
       <c r="C3">
-        <v>8</v>
-      </c>
-      <c r="D3">
-        <f>VLOOKUP(A3,'All teams'!A:D,4,FALSE)</f>
-        <v>64</v>
-      </c>
-      <c r="E3" t="s">
-        <v>114</v>
-      </c>
-      <c r="F3">
-        <v>13</v>
-      </c>
-      <c r="G3">
-        <v>15</v>
-      </c>
-      <c r="H3">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(D3,'All teams'!G:H,2,FALSE)</f>
+        <v>83</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <f>VLOOKUP(A4,'All teams'!G:H,2,FALSE)</f>
+        <v>229</v>
       </c>
       <c r="C4">
-        <v>8</v>
-      </c>
-      <c r="D4">
-        <f>VLOOKUP(A4,'All teams'!A:D,4,FALSE)</f>
-        <v>229</v>
-      </c>
-      <c r="E4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F4">
-        <v>13</v>
-      </c>
-      <c r="G4">
-        <v>15</v>
-      </c>
-      <c r="H4">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(D4,'All teams'!G:H,2,FALSE)</f>
+        <v>105</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <f>VLOOKUP(A5,'All teams'!G:H,2,FALSE)</f>
+        <v>230</v>
       </c>
       <c r="C5">
-        <v>8</v>
-      </c>
-      <c r="D5">
-        <f>VLOOKUP(A5,'All teams'!A:D,4,FALSE)</f>
-        <v>230</v>
-      </c>
-      <c r="E5" t="s">
-        <v>116</v>
-      </c>
-      <c r="F5">
-        <v>13</v>
-      </c>
-      <c r="G5">
-        <v>15</v>
-      </c>
-      <c r="H5">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(D5,'All teams'!G:H,2,FALSE)</f>
+        <v>163</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <f>VLOOKUP(A6,'All teams'!G:H,2,FALSE)</f>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>8</v>
-      </c>
-      <c r="D6">
-        <f>VLOOKUP(A6,'All teams'!A:D,4,FALSE)</f>
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
-        <v>117</v>
-      </c>
-      <c r="F6">
-        <v>13</v>
-      </c>
-      <c r="G6">
-        <v>15</v>
-      </c>
-      <c r="H6">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(D6,'All teams'!G:H,2,FALSE)</f>
+        <v>79</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <f>VLOOKUP(A7,'All teams'!G:H,2,FALSE)</f>
+        <v>65</v>
       </c>
       <c r="C7">
-        <v>8</v>
-      </c>
-      <c r="D7">
-        <f>VLOOKUP(A7,'All teams'!A:D,4,FALSE)</f>
-        <v>65</v>
-      </c>
-      <c r="E7" t="s">
-        <v>118</v>
-      </c>
-      <c r="F7">
-        <v>13</v>
-      </c>
-      <c r="G7">
-        <v>15</v>
-      </c>
-      <c r="H7">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(D7,'All teams'!G:H,2,FALSE)</f>
+        <v>97</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <f>VLOOKUP(A8,'All teams'!G:H,2,FALSE)</f>
+        <v>86</v>
       </c>
       <c r="C8">
-        <v>9</v>
-      </c>
-      <c r="D8">
-        <f>VLOOKUP(A8,'All teams'!A:D,4,FALSE)</f>
-        <v>86</v>
-      </c>
-      <c r="E8" t="s">
-        <v>119</v>
-      </c>
-      <c r="F8">
-        <v>13</v>
-      </c>
-      <c r="G8">
-        <v>15</v>
-      </c>
-      <c r="H8">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(D8,'All teams'!G:H,2,FALSE)</f>
+        <v>218</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <f>VLOOKUP(A9,'All teams'!G:H,2,FALSE)</f>
+        <v>143</v>
       </c>
       <c r="C9">
-        <v>9</v>
-      </c>
-      <c r="D9">
-        <f>VLOOKUP(A9,'All teams'!A:D,4,FALSE)</f>
-        <v>143</v>
-      </c>
-      <c r="E9" t="s">
-        <v>120</v>
-      </c>
-      <c r="F9">
-        <v>13</v>
-      </c>
-      <c r="G9">
-        <v>15</v>
-      </c>
-      <c r="H9">
-        <v>65</v>
+        <f>VLOOKUP(D9,'All teams'!G:H,2,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F10">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B10">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F9">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D121"/>
+  <dimension ref="A1:H204"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="A104" sqref="A104:D111"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -4506,8 +4648,17 @@
       <c r="D1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -4520,8 +4671,17 @@
       <c r="D2">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -4534,8 +4694,17 @@
       <c r="D3">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -4548,8 +4717,17 @@
       <c r="D4">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -4562,8 +4740,17 @@
       <c r="D5">
         <v>47</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -4576,8 +4763,17 @@
       <c r="D6">
         <v>63</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -4590,8 +4786,17 @@
       <c r="D7">
         <v>109</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -4604,8 +4809,17 @@
       <c r="D8">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8" t="s">
+        <v>113</v>
+      </c>
+      <c r="H8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -4618,8 +4832,17 @@
       <c r="D9">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9" t="s">
+        <v>131</v>
+      </c>
+      <c r="H9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -4632,8 +4855,17 @@
       <c r="D10">
         <v>49</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>9</v>
+      </c>
+      <c r="G10" t="s">
+        <v>109</v>
+      </c>
+      <c r="H10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -4646,8 +4878,17 @@
       <c r="D11">
         <v>62</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -4660,8 +4901,17 @@
       <c r="D12">
         <v>107</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -4674,8 +4924,17 @@
       <c r="D13">
         <v>108</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -4688,8 +4947,17 @@
       <c r="D14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -4702,8 +4970,17 @@
       <c r="D15">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -4716,8 +4993,17 @@
       <c r="D16">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>15</v>
+      </c>
+      <c r="G16" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -4730,8 +5016,17 @@
       <c r="D17">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>80</v>
+      </c>
+      <c r="H17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -4744,8 +5039,17 @@
       <c r="D18">
         <v>26</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>17</v>
+      </c>
+      <c r="G18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -4758,8 +5062,17 @@
       <c r="D19">
         <v>41</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>18</v>
+      </c>
+      <c r="G19" t="s">
+        <v>99</v>
+      </c>
+      <c r="H19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -4772,8 +5085,17 @@
       <c r="D20">
         <v>50</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>19</v>
+      </c>
+      <c r="G20" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -4786,8 +5108,17 @@
       <c r="D21">
         <v>69</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>20</v>
+      </c>
+      <c r="G21" t="s">
+        <v>95</v>
+      </c>
+      <c r="H21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -4800,8 +5131,17 @@
       <c r="D22">
         <v>95</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <v>21</v>
+      </c>
+      <c r="G22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -4814,8 +5154,17 @@
       <c r="D23">
         <v>113</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>22</v>
+      </c>
+      <c r="G23" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -4828,8 +5177,17 @@
       <c r="D24">
         <v>33</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <v>23</v>
+      </c>
+      <c r="G24" t="s">
+        <v>81</v>
+      </c>
+      <c r="H24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -4842,8 +5200,17 @@
       <c r="D25">
         <v>38</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <v>24</v>
+      </c>
+      <c r="G25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>47</v>
       </c>
@@ -4856,8 +5223,17 @@
       <c r="D26">
         <v>39</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <v>25</v>
+      </c>
+      <c r="G26" t="s">
+        <v>59</v>
+      </c>
+      <c r="H26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -4870,8 +5246,17 @@
       <c r="D27">
         <v>40</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <v>26</v>
+      </c>
+      <c r="G27" t="s">
+        <v>39</v>
+      </c>
+      <c r="H27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>49</v>
       </c>
@@ -4884,8 +5269,17 @@
       <c r="D28">
         <v>56</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <v>27</v>
+      </c>
+      <c r="G28" t="s">
+        <v>101</v>
+      </c>
+      <c r="H28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>50</v>
       </c>
@@ -4898,8 +5292,17 @@
       <c r="D29">
         <v>89</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <v>28</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>51</v>
       </c>
@@ -4912,8 +5315,17 @@
       <c r="D30">
         <v>11</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <v>29</v>
+      </c>
+      <c r="G30" t="s">
+        <v>82</v>
+      </c>
+      <c r="H30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>52</v>
       </c>
@@ -4926,8 +5338,17 @@
       <c r="D31">
         <v>71</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <v>30</v>
+      </c>
+      <c r="G31" t="s">
+        <v>102</v>
+      </c>
+      <c r="H31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>53</v>
       </c>
@@ -4940,8 +5361,17 @@
       <c r="D32">
         <v>72</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <v>31</v>
+      </c>
+      <c r="G32" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>54</v>
       </c>
@@ -4954,8 +5384,17 @@
       <c r="D33">
         <v>92</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <v>32</v>
+      </c>
+      <c r="G33" t="s">
+        <v>83</v>
+      </c>
+      <c r="H33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>55</v>
       </c>
@@ -4968,8 +5407,17 @@
       <c r="D34">
         <v>93</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <v>33</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>56</v>
       </c>
@@ -4982,8 +5430,17 @@
       <c r="D35">
         <v>94</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <v>34</v>
+      </c>
+      <c r="G35" t="s">
+        <v>132</v>
+      </c>
+      <c r="H35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>57</v>
       </c>
@@ -4996,8 +5453,17 @@
       <c r="D36">
         <v>188</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <v>35</v>
+      </c>
+      <c r="G36" t="s">
+        <v>73</v>
+      </c>
+      <c r="H36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>58</v>
       </c>
@@ -5010,8 +5476,17 @@
       <c r="D37">
         <v>15</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <v>36</v>
+      </c>
+      <c r="G37" t="s">
+        <v>67</v>
+      </c>
+      <c r="H37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>59</v>
       </c>
@@ -5024,8 +5499,17 @@
       <c r="D38">
         <v>25</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <v>37</v>
+      </c>
+      <c r="G38" t="s">
+        <v>74</v>
+      </c>
+      <c r="H38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>60</v>
       </c>
@@ -5038,8 +5522,17 @@
       <c r="D39">
         <v>230</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <v>38</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>61</v>
       </c>
@@ -5052,8 +5545,17 @@
       <c r="D40">
         <v>229</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <v>39</v>
+      </c>
+      <c r="G40" t="s">
+        <v>47</v>
+      </c>
+      <c r="H40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>62</v>
       </c>
@@ -5066,8 +5568,17 @@
       <c r="D41">
         <v>46</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <v>40</v>
+      </c>
+      <c r="G41" t="s">
+        <v>48</v>
+      </c>
+      <c r="H41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>63</v>
       </c>
@@ -5080,8 +5591,17 @@
       <c r="D42">
         <v>66</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <v>41</v>
+      </c>
+      <c r="G42" t="s">
+        <v>40</v>
+      </c>
+      <c r="H42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>64</v>
       </c>
@@ -5094,8 +5614,17 @@
       <c r="D43">
         <v>98</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <v>42</v>
+      </c>
+      <c r="G43" t="s">
+        <v>103</v>
+      </c>
+      <c r="H43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>65</v>
       </c>
@@ -5108,8 +5637,17 @@
       <c r="D44">
         <v>211</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <v>43</v>
+      </c>
+      <c r="G44" t="s">
+        <v>114</v>
+      </c>
+      <c r="H44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>23</v>
       </c>
@@ -5122,8 +5660,17 @@
       <c r="D45">
         <v>17</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F45">
+        <v>44</v>
+      </c>
+      <c r="G45" t="s">
+        <v>96</v>
+      </c>
+      <c r="H45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>24</v>
       </c>
@@ -5136,8 +5683,17 @@
       <c r="D46">
         <v>74</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <v>45</v>
+      </c>
+      <c r="G46" t="s">
+        <v>110</v>
+      </c>
+      <c r="H46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>25</v>
       </c>
@@ -5150,8 +5706,17 @@
       <c r="D47">
         <v>75</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <v>46</v>
+      </c>
+      <c r="G47" t="s">
+        <v>62</v>
+      </c>
+      <c r="H47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>26</v>
       </c>
@@ -5164,8 +5729,17 @@
       <c r="D48">
         <v>87</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <v>47</v>
+      </c>
+      <c r="G48" t="s">
+        <v>14</v>
+      </c>
+      <c r="H48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>27</v>
       </c>
@@ -5178,8 +5752,17 @@
       <c r="D49">
         <v>110</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <v>48</v>
+      </c>
+      <c r="G49" t="s">
+        <v>97</v>
+      </c>
+      <c r="H49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>28</v>
       </c>
@@ -5192,8 +5775,17 @@
       <c r="D50">
         <v>111</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F50">
+        <v>49</v>
+      </c>
+      <c r="G50" t="s">
+        <v>19</v>
+      </c>
+      <c r="H50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>29</v>
       </c>
@@ -5206,8 +5798,17 @@
       <c r="D51">
         <v>4</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <v>50</v>
+      </c>
+      <c r="G51" t="s">
+        <v>41</v>
+      </c>
+      <c r="H51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>30</v>
       </c>
@@ -5220,8 +5821,17 @@
       <c r="D52">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F52">
+        <v>51</v>
+      </c>
+      <c r="G52" t="s">
+        <v>68</v>
+      </c>
+      <c r="H52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>31</v>
       </c>
@@ -5234,8 +5844,17 @@
       <c r="D53">
         <v>22</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F53">
+        <v>52</v>
+      </c>
+      <c r="G53" t="s">
+        <v>69</v>
+      </c>
+      <c r="H53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>32</v>
       </c>
@@ -5248,8 +5867,17 @@
       <c r="D54">
         <v>99</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F54">
+        <v>53</v>
+      </c>
+      <c r="G54" t="s">
+        <v>115</v>
+      </c>
+      <c r="H54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>33</v>
       </c>
@@ -5262,8 +5890,17 @@
       <c r="D55">
         <v>102</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F55">
+        <v>54</v>
+      </c>
+      <c r="G55" t="s">
+        <v>75</v>
+      </c>
+      <c r="H55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>34</v>
       </c>
@@ -5276,8 +5913,17 @@
       <c r="D56">
         <v>103</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F56">
+        <v>55</v>
+      </c>
+      <c r="G56" t="s">
+        <v>111</v>
+      </c>
+      <c r="H56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>66</v>
       </c>
@@ -5290,8 +5936,17 @@
       <c r="D57">
         <v>181</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F57">
+        <v>56</v>
+      </c>
+      <c r="G57" t="s">
+        <v>49</v>
+      </c>
+      <c r="H57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>67</v>
       </c>
@@ -5304,8 +5959,17 @@
       <c r="D58">
         <v>36</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F58">
+        <v>57</v>
+      </c>
+      <c r="G58" t="s">
+        <v>133</v>
+      </c>
+      <c r="H58">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>68</v>
       </c>
@@ -5318,8 +5982,17 @@
       <c r="D59">
         <v>51</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F59">
+        <v>58</v>
+      </c>
+      <c r="G59" t="s">
+        <v>76</v>
+      </c>
+      <c r="H59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>69</v>
       </c>
@@ -5332,8 +6005,17 @@
       <c r="D60">
         <v>52</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F60">
+        <v>59</v>
+      </c>
+      <c r="G60" t="s">
+        <v>84</v>
+      </c>
+      <c r="H60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>70</v>
       </c>
@@ -5346,8 +6028,17 @@
       <c r="D61">
         <v>70</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F61">
+        <v>60</v>
+      </c>
+      <c r="G61" t="s">
+        <v>121</v>
+      </c>
+      <c r="H61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>71</v>
       </c>
@@ -5360,8 +6051,17 @@
       <c r="D62">
         <v>76</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F62">
+        <v>61</v>
+      </c>
+      <c r="G62" t="s">
+        <v>122</v>
+      </c>
+      <c r="H62">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>72</v>
       </c>
@@ -5374,8 +6074,17 @@
       <c r="D63">
         <v>78</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F63">
+        <v>62</v>
+      </c>
+      <c r="G63" t="s">
+        <v>20</v>
+      </c>
+      <c r="H63">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>73</v>
       </c>
@@ -5388,8 +6097,17 @@
       <c r="D64">
         <v>35</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F64">
+        <v>63</v>
+      </c>
+      <c r="G64" t="s">
+        <v>15</v>
+      </c>
+      <c r="H64">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>74</v>
       </c>
@@ -5402,8 +6120,17 @@
       <c r="D65">
         <v>37</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F65">
+        <v>64</v>
+      </c>
+      <c r="G65" t="s">
+        <v>123</v>
+      </c>
+      <c r="H65">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>75</v>
       </c>
@@ -5416,8 +6143,17 @@
       <c r="D66">
         <v>54</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F66">
+        <v>65</v>
+      </c>
+      <c r="G66" t="s">
+        <v>120</v>
+      </c>
+      <c r="H66">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>76</v>
       </c>
@@ -5430,8 +6166,17 @@
       <c r="D67">
         <v>58</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F67">
+        <v>66</v>
+      </c>
+      <c r="G67" t="s">
+        <v>63</v>
+      </c>
+      <c r="H67">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>77</v>
       </c>
@@ -5444,8 +6189,17 @@
       <c r="D68">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F68">
+        <v>67</v>
+      </c>
+      <c r="G68" t="s">
+        <v>77</v>
+      </c>
+      <c r="H68">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>78</v>
       </c>
@@ -5458,8 +6212,17 @@
       <c r="D69">
         <v>114</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F69">
+        <v>68</v>
+      </c>
+      <c r="G69" t="s">
+        <v>98</v>
+      </c>
+      <c r="H69">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>79</v>
       </c>
@@ -5472,8 +6235,17 @@
       <c r="D70">
         <v>12</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F70">
+        <v>69</v>
+      </c>
+      <c r="G70" t="s">
+        <v>42</v>
+      </c>
+      <c r="H70">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>80</v>
       </c>
@@ -5486,8 +6258,17 @@
       <c r="D71">
         <v>16</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F71">
+        <v>70</v>
+      </c>
+      <c r="G71" t="s">
+        <v>70</v>
+      </c>
+      <c r="H71">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>81</v>
       </c>
@@ -5500,8 +6281,17 @@
       <c r="D72">
         <v>23</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F72">
+        <v>71</v>
+      </c>
+      <c r="G72" t="s">
+        <v>52</v>
+      </c>
+      <c r="H72">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>82</v>
       </c>
@@ -5514,8 +6304,17 @@
       <c r="D73">
         <v>29</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F73">
+        <v>72</v>
+      </c>
+      <c r="G73" t="s">
+        <v>53</v>
+      </c>
+      <c r="H73">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>83</v>
       </c>
@@ -5528,8 +6327,17 @@
       <c r="D74">
         <v>32</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F74">
+        <v>73</v>
+      </c>
+      <c r="G74" t="s">
+        <v>112</v>
+      </c>
+      <c r="H74">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>84</v>
       </c>
@@ -5542,8 +6350,17 @@
       <c r="D75">
         <v>59</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F75">
+        <v>74</v>
+      </c>
+      <c r="G75" t="s">
+        <v>24</v>
+      </c>
+      <c r="H75">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>85</v>
       </c>
@@ -5556,8 +6373,17 @@
       <c r="D76">
         <v>81</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F76">
+        <v>75</v>
+      </c>
+      <c r="G76" t="s">
+        <v>25</v>
+      </c>
+      <c r="H76">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>86</v>
       </c>
@@ -5570,8 +6396,17 @@
       <c r="D77">
         <v>82</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F77">
+        <v>76</v>
+      </c>
+      <c r="G77" t="s">
+        <v>71</v>
+      </c>
+      <c r="H77">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>87</v>
       </c>
@@ -5584,8 +6419,17 @@
       <c r="D78">
         <v>104</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F78">
+        <v>77</v>
+      </c>
+      <c r="G78" t="s">
+        <v>90</v>
+      </c>
+      <c r="H78">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>88</v>
       </c>
@@ -5598,8 +6442,17 @@
       <c r="D79">
         <v>115</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F79">
+        <v>78</v>
+      </c>
+      <c r="G79" t="s">
+        <v>72</v>
+      </c>
+      <c r="H79">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>89</v>
       </c>
@@ -5612,8 +6465,17 @@
       <c r="D80">
         <v>100</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F80">
+        <v>79</v>
+      </c>
+      <c r="G80" t="s">
+        <v>124</v>
+      </c>
+      <c r="H80">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>90</v>
       </c>
@@ -5626,8 +6488,17 @@
       <c r="D81">
         <v>77</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F81">
+        <v>80</v>
+      </c>
+      <c r="G81" t="s">
+        <v>91</v>
+      </c>
+      <c r="H81">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>91</v>
       </c>
@@ -5640,8 +6511,17 @@
       <c r="D82">
         <v>80</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F82">
+        <v>81</v>
+      </c>
+      <c r="G82" t="s">
+        <v>85</v>
+      </c>
+      <c r="H82">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>92</v>
       </c>
@@ -5654,8 +6534,17 @@
       <c r="D83">
         <v>88</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F83">
+        <v>82</v>
+      </c>
+      <c r="G83" t="s">
+        <v>86</v>
+      </c>
+      <c r="H83">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>93</v>
       </c>
@@ -5668,8 +6557,17 @@
       <c r="D84">
         <v>90</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F84">
+        <v>83</v>
+      </c>
+      <c r="G84" t="s">
+        <v>125</v>
+      </c>
+      <c r="H84">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>94</v>
       </c>
@@ -5682,8 +6580,17 @@
       <c r="D85">
         <v>112</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F85">
+        <v>84</v>
+      </c>
+      <c r="G85" t="s">
+        <v>104</v>
+      </c>
+      <c r="H85">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>95</v>
       </c>
@@ -5696,8 +6603,17 @@
       <c r="D86">
         <v>20</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F86">
+        <v>85</v>
+      </c>
+      <c r="G86" t="s">
+        <v>116</v>
+      </c>
+      <c r="H86">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>96</v>
       </c>
@@ -5710,8 +6626,17 @@
       <c r="D87">
         <v>44</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F87">
+        <v>86</v>
+      </c>
+      <c r="G87" t="s">
+        <v>119</v>
+      </c>
+      <c r="H87">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>97</v>
       </c>
@@ -5724,8 +6649,17 @@
       <c r="D88">
         <v>48</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F88">
+        <v>87</v>
+      </c>
+      <c r="G88" t="s">
+        <v>26</v>
+      </c>
+      <c r="H88">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>98</v>
       </c>
@@ -5738,8 +6672,17 @@
       <c r="D89">
         <v>68</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F89">
+        <v>88</v>
+      </c>
+      <c r="G89" t="s">
+        <v>92</v>
+      </c>
+      <c r="H89">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>99</v>
       </c>
@@ -5752,8 +6695,17 @@
       <c r="D90">
         <v>18</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F90">
+        <v>89</v>
+      </c>
+      <c r="G90" t="s">
+        <v>50</v>
+      </c>
+      <c r="H90">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>100</v>
       </c>
@@ -5766,8 +6718,17 @@
       <c r="D91">
         <v>144</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F91">
+        <v>90</v>
+      </c>
+      <c r="G91" t="s">
+        <v>93</v>
+      </c>
+      <c r="H91">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>101</v>
       </c>
@@ -5780,8 +6741,17 @@
       <c r="D92">
         <v>27</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F92">
+        <v>91</v>
+      </c>
+      <c r="G92" t="s">
+        <v>105</v>
+      </c>
+      <c r="H92">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>102</v>
       </c>
@@ -5794,8 +6764,17 @@
       <c r="D93">
         <v>30</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F93">
+        <v>92</v>
+      </c>
+      <c r="G93" t="s">
+        <v>54</v>
+      </c>
+      <c r="H93">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>103</v>
       </c>
@@ -5808,8 +6787,17 @@
       <c r="D94">
         <v>42</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F94">
+        <v>93</v>
+      </c>
+      <c r="G94" t="s">
+        <v>55</v>
+      </c>
+      <c r="H94">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>104</v>
       </c>
@@ -5822,8 +6810,17 @@
       <c r="D95">
         <v>84</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F95">
+        <v>94</v>
+      </c>
+      <c r="G95" t="s">
+        <v>56</v>
+      </c>
+      <c r="H95">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>105</v>
       </c>
@@ -5836,8 +6833,17 @@
       <c r="D96">
         <v>91</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F96">
+        <v>95</v>
+      </c>
+      <c r="G96" t="s">
+        <v>43</v>
+      </c>
+      <c r="H96">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>106</v>
       </c>
@@ -5850,8 +6856,17 @@
       <c r="D97">
         <v>106</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F97">
+        <v>96</v>
+      </c>
+      <c r="G97" t="s">
+        <v>118</v>
+      </c>
+      <c r="H97">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>107</v>
       </c>
@@ -5864,8 +6879,17 @@
       <c r="D98">
         <v>3</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F98">
+        <v>97</v>
+      </c>
+      <c r="G98" t="s">
+        <v>127</v>
+      </c>
+      <c r="H98">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>108</v>
       </c>
@@ -5878,8 +6902,17 @@
       <c r="D99">
         <v>6</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F99">
+        <v>98</v>
+      </c>
+      <c r="G99" t="s">
+        <v>64</v>
+      </c>
+      <c r="H99">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>109</v>
       </c>
@@ -5892,8 +6925,17 @@
       <c r="D100">
         <v>9</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F100">
+        <v>99</v>
+      </c>
+      <c r="G100" t="s">
+        <v>32</v>
+      </c>
+      <c r="H100">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>110</v>
       </c>
@@ -5906,8 +6948,17 @@
       <c r="D101">
         <v>45</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F101">
+        <v>100</v>
+      </c>
+      <c r="G101" t="s">
+        <v>89</v>
+      </c>
+      <c r="H101">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>111</v>
       </c>
@@ -5920,8 +6971,17 @@
       <c r="D102">
         <v>55</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F102">
+        <v>101</v>
+      </c>
+      <c r="G102" t="s">
+        <v>128</v>
+      </c>
+      <c r="H102">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>112</v>
       </c>
@@ -5934,8 +6994,17 @@
       <c r="D103">
         <v>73</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F103">
+        <v>102</v>
+      </c>
+      <c r="G103" t="s">
+        <v>33</v>
+      </c>
+      <c r="H103">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>113</v>
       </c>
@@ -5948,8 +7017,17 @@
       <c r="D104">
         <v>7</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F104">
+        <v>103</v>
+      </c>
+      <c r="G104" t="s">
+        <v>34</v>
+      </c>
+      <c r="H104">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>114</v>
       </c>
@@ -5962,8 +7040,17 @@
       <c r="D105">
         <v>43</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F105">
+        <v>104</v>
+      </c>
+      <c r="G105" t="s">
+        <v>87</v>
+      </c>
+      <c r="H105">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>115</v>
       </c>
@@ -5976,8 +7063,17 @@
       <c r="D106">
         <v>53</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F106">
+        <v>105</v>
+      </c>
+      <c r="G106" t="s">
+        <v>129</v>
+      </c>
+      <c r="H106">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>116</v>
       </c>
@@ -5990,8 +7086,17 @@
       <c r="D107">
         <v>85</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F107">
+        <v>106</v>
+      </c>
+      <c r="G107" t="s">
+        <v>106</v>
+      </c>
+      <c r="H107">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>117</v>
       </c>
@@ -6004,8 +7109,17 @@
       <c r="D108">
         <v>143</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F108">
+        <v>107</v>
+      </c>
+      <c r="G108" t="s">
+        <v>21</v>
+      </c>
+      <c r="H108">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>118</v>
       </c>
@@ -6018,8 +7132,17 @@
       <c r="D109">
         <v>96</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F109">
+        <v>108</v>
+      </c>
+      <c r="G109" t="s">
+        <v>22</v>
+      </c>
+      <c r="H109">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>119</v>
       </c>
@@ -6032,8 +7155,17 @@
       <c r="D110">
         <v>86</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F110">
+        <v>109</v>
+      </c>
+      <c r="G110" t="s">
+        <v>16</v>
+      </c>
+      <c r="H110">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>120</v>
       </c>
@@ -6046,8 +7178,17 @@
       <c r="D111">
         <v>65</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F111">
+        <v>110</v>
+      </c>
+      <c r="G111" t="s">
+        <v>27</v>
+      </c>
+      <c r="H111">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>121</v>
       </c>
@@ -6060,8 +7201,17 @@
       <c r="D112">
         <v>60</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F112">
+        <v>111</v>
+      </c>
+      <c r="G112" t="s">
+        <v>28</v>
+      </c>
+      <c r="H112">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>122</v>
       </c>
@@ -6074,8 +7224,17 @@
       <c r="D113">
         <v>61</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F113">
+        <v>112</v>
+      </c>
+      <c r="G113" t="s">
+        <v>94</v>
+      </c>
+      <c r="H113">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>123</v>
       </c>
@@ -6088,8 +7247,17 @@
       <c r="D114">
         <v>64</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F114">
+        <v>113</v>
+      </c>
+      <c r="G114" t="s">
+        <v>44</v>
+      </c>
+      <c r="H114">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>124</v>
       </c>
@@ -6102,8 +7270,17 @@
       <c r="D115">
         <v>79</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F115">
+        <v>114</v>
+      </c>
+      <c r="G115" t="s">
+        <v>78</v>
+      </c>
+      <c r="H115">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>125</v>
       </c>
@@ -6116,8 +7293,17 @@
       <c r="D116">
         <v>83</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F116">
+        <v>115</v>
+      </c>
+      <c r="G116" t="s">
+        <v>88</v>
+      </c>
+      <c r="H116">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>126</v>
       </c>
@@ -6130,8 +7316,17 @@
       <c r="D117">
         <v>218</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F117">
+        <v>116</v>
+      </c>
+      <c r="G117" t="s">
+        <v>134</v>
+      </c>
+      <c r="H117">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>127</v>
       </c>
@@ -6144,8 +7339,17 @@
       <c r="D118">
         <v>97</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F118">
+        <v>117</v>
+      </c>
+      <c r="G118" t="s">
+        <v>135</v>
+      </c>
+      <c r="H118">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>128</v>
       </c>
@@ -6158,8 +7362,17 @@
       <c r="D119">
         <v>101</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F119">
+        <v>118</v>
+      </c>
+      <c r="G119" t="s">
+        <v>136</v>
+      </c>
+      <c r="H119">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>129</v>
       </c>
@@ -6172,13 +7385,944 @@
       <c r="D120">
         <v>105</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F120">
+        <v>119</v>
+      </c>
+      <c r="G120" t="s">
+        <v>137</v>
+      </c>
+      <c r="H120">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>130</v>
       </c>
       <c r="D121">
         <v>1</v>
+      </c>
+      <c r="F121">
+        <v>120</v>
+      </c>
+      <c r="G121" t="s">
+        <v>138</v>
+      </c>
+      <c r="H121">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F122">
+        <v>121</v>
+      </c>
+      <c r="G122" t="s">
+        <v>139</v>
+      </c>
+      <c r="H122">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F123">
+        <v>122</v>
+      </c>
+      <c r="G123" t="s">
+        <v>140</v>
+      </c>
+      <c r="H123">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F124">
+        <v>123</v>
+      </c>
+      <c r="G124" t="s">
+        <v>141</v>
+      </c>
+      <c r="H124">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F125">
+        <v>124</v>
+      </c>
+      <c r="G125" t="s">
+        <v>142</v>
+      </c>
+      <c r="H125">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F126">
+        <v>125</v>
+      </c>
+      <c r="G126" t="s">
+        <v>143</v>
+      </c>
+      <c r="H126">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F127">
+        <v>126</v>
+      </c>
+      <c r="G127" t="s">
+        <v>144</v>
+      </c>
+      <c r="H127">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F128">
+        <v>127</v>
+      </c>
+      <c r="G128" t="s">
+        <v>145</v>
+      </c>
+      <c r="H128">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F129">
+        <v>128</v>
+      </c>
+      <c r="G129" t="s">
+        <v>146</v>
+      </c>
+      <c r="H129">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F130">
+        <v>129</v>
+      </c>
+      <c r="G130" t="s">
+        <v>147</v>
+      </c>
+      <c r="H130">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F131">
+        <v>130</v>
+      </c>
+      <c r="G131" t="s">
+        <v>148</v>
+      </c>
+      <c r="H131">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F132">
+        <v>131</v>
+      </c>
+      <c r="G132" t="s">
+        <v>149</v>
+      </c>
+      <c r="H132">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F133">
+        <v>132</v>
+      </c>
+      <c r="G133" t="s">
+        <v>150</v>
+      </c>
+      <c r="H133">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F134">
+        <v>133</v>
+      </c>
+      <c r="G134" t="s">
+        <v>151</v>
+      </c>
+      <c r="H134">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F135">
+        <v>134</v>
+      </c>
+      <c r="G135" t="s">
+        <v>152</v>
+      </c>
+      <c r="H135">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F136">
+        <v>135</v>
+      </c>
+      <c r="G136" t="s">
+        <v>153</v>
+      </c>
+      <c r="H136">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F137">
+        <v>136</v>
+      </c>
+      <c r="G137" t="s">
+        <v>154</v>
+      </c>
+      <c r="H137">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F138">
+        <v>137</v>
+      </c>
+      <c r="G138" t="s">
+        <v>155</v>
+      </c>
+      <c r="H138">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F139">
+        <v>138</v>
+      </c>
+      <c r="G139" t="s">
+        <v>156</v>
+      </c>
+      <c r="H139">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F140">
+        <v>139</v>
+      </c>
+      <c r="G140" t="s">
+        <v>157</v>
+      </c>
+      <c r="H140">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F141">
+        <v>140</v>
+      </c>
+      <c r="G141" t="s">
+        <v>158</v>
+      </c>
+      <c r="H141">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F142">
+        <v>141</v>
+      </c>
+      <c r="G142" t="s">
+        <v>159</v>
+      </c>
+      <c r="H142">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F143">
+        <v>142</v>
+      </c>
+      <c r="G143" t="s">
+        <v>160</v>
+      </c>
+      <c r="H143">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F144">
+        <v>143</v>
+      </c>
+      <c r="G144" t="s">
+        <v>117</v>
+      </c>
+      <c r="H144">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F145">
+        <v>144</v>
+      </c>
+      <c r="G145" t="s">
+        <v>100</v>
+      </c>
+      <c r="H145">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F146">
+        <v>160</v>
+      </c>
+      <c r="G146" t="s">
+        <v>207</v>
+      </c>
+      <c r="H146">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="147" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F147">
+        <v>161</v>
+      </c>
+      <c r="G147" t="s">
+        <v>208</v>
+      </c>
+      <c r="H147">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="148" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F148">
+        <v>162</v>
+      </c>
+      <c r="G148" t="s">
+        <v>209</v>
+      </c>
+      <c r="H148">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="149" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F149">
+        <v>163</v>
+      </c>
+      <c r="G149" t="s">
+        <v>210</v>
+      </c>
+      <c r="H149">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="150" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F150">
+        <v>164</v>
+      </c>
+      <c r="G150" t="s">
+        <v>211</v>
+      </c>
+      <c r="H150">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="151" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F151">
+        <v>177</v>
+      </c>
+      <c r="G151" t="s">
+        <v>161</v>
+      </c>
+      <c r="H151">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="152" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F152">
+        <v>178</v>
+      </c>
+      <c r="G152" t="s">
+        <v>212</v>
+      </c>
+      <c r="H152">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="153" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F153">
+        <v>179</v>
+      </c>
+      <c r="G153" t="s">
+        <v>162</v>
+      </c>
+      <c r="H153">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="154" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F154">
+        <v>180</v>
+      </c>
+      <c r="G154" t="s">
+        <v>163</v>
+      </c>
+      <c r="H154">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="155" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F155">
+        <v>181</v>
+      </c>
+      <c r="G155" t="s">
+        <v>66</v>
+      </c>
+      <c r="H155">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="156" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F156">
+        <v>182</v>
+      </c>
+      <c r="G156" t="s">
+        <v>164</v>
+      </c>
+      <c r="H156">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="157" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F157">
+        <v>183</v>
+      </c>
+      <c r="G157" t="s">
+        <v>213</v>
+      </c>
+      <c r="H157">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="158" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F158">
+        <v>184</v>
+      </c>
+      <c r="G158" t="s">
+        <v>165</v>
+      </c>
+      <c r="H158">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="159" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F159">
+        <v>185</v>
+      </c>
+      <c r="G159" t="s">
+        <v>166</v>
+      </c>
+      <c r="H159">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="160" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F160">
+        <v>186</v>
+      </c>
+      <c r="G160" t="s">
+        <v>167</v>
+      </c>
+      <c r="H160">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="161" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F161">
+        <v>187</v>
+      </c>
+      <c r="G161" t="s">
+        <v>168</v>
+      </c>
+      <c r="H161">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="162" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F162">
+        <v>188</v>
+      </c>
+      <c r="G162" t="s">
+        <v>57</v>
+      </c>
+      <c r="H162">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="163" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F163">
+        <v>189</v>
+      </c>
+      <c r="G163" t="s">
+        <v>169</v>
+      </c>
+      <c r="H163">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="164" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F164">
+        <v>191</v>
+      </c>
+      <c r="G164" t="s">
+        <v>170</v>
+      </c>
+      <c r="H164">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="165" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F165">
+        <v>192</v>
+      </c>
+      <c r="G165" t="s">
+        <v>171</v>
+      </c>
+      <c r="H165">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="166" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F166">
+        <v>193</v>
+      </c>
+      <c r="G166" t="s">
+        <v>172</v>
+      </c>
+      <c r="H166">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="167" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F167">
+        <v>194</v>
+      </c>
+      <c r="G167" t="s">
+        <v>173</v>
+      </c>
+      <c r="H167">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="168" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F168">
+        <v>195</v>
+      </c>
+      <c r="G168" t="s">
+        <v>174</v>
+      </c>
+      <c r="H168">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="169" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F169">
+        <v>196</v>
+      </c>
+      <c r="G169" t="s">
+        <v>175</v>
+      </c>
+      <c r="H169">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="170" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F170">
+        <v>197</v>
+      </c>
+      <c r="G170" t="s">
+        <v>176</v>
+      </c>
+      <c r="H170">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="171" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F171">
+        <v>198</v>
+      </c>
+      <c r="G171" t="s">
+        <v>177</v>
+      </c>
+      <c r="H171">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="172" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F172">
+        <v>199</v>
+      </c>
+      <c r="G172" t="s">
+        <v>178</v>
+      </c>
+      <c r="H172">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="173" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F173">
+        <v>200</v>
+      </c>
+      <c r="G173" t="s">
+        <v>179</v>
+      </c>
+      <c r="H173">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="174" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F174">
+        <v>201</v>
+      </c>
+      <c r="G174" t="s">
+        <v>180</v>
+      </c>
+      <c r="H174">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="175" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F175">
+        <v>202</v>
+      </c>
+      <c r="G175" t="s">
+        <v>181</v>
+      </c>
+      <c r="H175">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="176" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F176">
+        <v>203</v>
+      </c>
+      <c r="G176" t="s">
+        <v>182</v>
+      </c>
+      <c r="H176">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="177" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F177">
+        <v>204</v>
+      </c>
+      <c r="G177" t="s">
+        <v>183</v>
+      </c>
+      <c r="H177">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="178" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F178">
+        <v>205</v>
+      </c>
+      <c r="G178" t="s">
+        <v>184</v>
+      </c>
+      <c r="H178">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="179" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F179">
+        <v>206</v>
+      </c>
+      <c r="G179" t="s">
+        <v>185</v>
+      </c>
+      <c r="H179">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="180" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F180">
+        <v>207</v>
+      </c>
+      <c r="G180" t="s">
+        <v>186</v>
+      </c>
+      <c r="H180">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="181" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F181">
+        <v>208</v>
+      </c>
+      <c r="G181" t="s">
+        <v>187</v>
+      </c>
+      <c r="H181">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="182" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F182">
+        <v>209</v>
+      </c>
+      <c r="G182" t="s">
+        <v>188</v>
+      </c>
+      <c r="H182">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="183" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F183">
+        <v>210</v>
+      </c>
+      <c r="G183" t="s">
+        <v>189</v>
+      </c>
+      <c r="H183">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="184" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F184">
+        <v>211</v>
+      </c>
+      <c r="G184" t="s">
+        <v>65</v>
+      </c>
+      <c r="H184">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="185" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F185">
+        <v>212</v>
+      </c>
+      <c r="G185" t="s">
+        <v>190</v>
+      </c>
+      <c r="H185">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="186" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F186">
+        <v>213</v>
+      </c>
+      <c r="G186" t="s">
+        <v>191</v>
+      </c>
+      <c r="H186">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="187" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F187">
+        <v>214</v>
+      </c>
+      <c r="G187" t="s">
+        <v>192</v>
+      </c>
+      <c r="H187">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="188" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F188">
+        <v>215</v>
+      </c>
+      <c r="G188" t="s">
+        <v>193</v>
+      </c>
+      <c r="H188">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="189" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F189">
+        <v>216</v>
+      </c>
+      <c r="G189" t="s">
+        <v>194</v>
+      </c>
+      <c r="H189">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="190" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F190">
+        <v>217</v>
+      </c>
+      <c r="G190" t="s">
+        <v>195</v>
+      </c>
+      <c r="H190">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="191" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F191">
+        <v>218</v>
+      </c>
+      <c r="G191" t="s">
+        <v>126</v>
+      </c>
+      <c r="H191">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="192" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F192">
+        <v>219</v>
+      </c>
+      <c r="G192" t="s">
+        <v>196</v>
+      </c>
+      <c r="H192">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="193" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F193">
+        <v>220</v>
+      </c>
+      <c r="G193" t="s">
+        <v>197</v>
+      </c>
+      <c r="H193">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="194" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F194">
+        <v>221</v>
+      </c>
+      <c r="G194" t="s">
+        <v>198</v>
+      </c>
+      <c r="H194">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="195" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F195">
+        <v>222</v>
+      </c>
+      <c r="G195" t="s">
+        <v>199</v>
+      </c>
+      <c r="H195">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="196" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F196">
+        <v>223</v>
+      </c>
+      <c r="G196" t="s">
+        <v>200</v>
+      </c>
+      <c r="H196">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="197" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F197">
+        <v>224</v>
+      </c>
+      <c r="G197" t="s">
+        <v>201</v>
+      </c>
+      <c r="H197">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="198" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F198">
+        <v>225</v>
+      </c>
+      <c r="G198" t="s">
+        <v>202</v>
+      </c>
+      <c r="H198">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="199" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F199">
+        <v>226</v>
+      </c>
+      <c r="G199" t="s">
+        <v>203</v>
+      </c>
+      <c r="H199">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="200" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F200">
+        <v>227</v>
+      </c>
+      <c r="G200" t="s">
+        <v>204</v>
+      </c>
+      <c r="H200">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="201" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F201">
+        <v>228</v>
+      </c>
+      <c r="G201" t="s">
+        <v>205</v>
+      </c>
+      <c r="H201">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="202" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F202">
+        <v>229</v>
+      </c>
+      <c r="G202" t="s">
+        <v>61</v>
+      </c>
+      <c r="H202">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="203" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F203">
+        <v>230</v>
+      </c>
+      <c r="G203" t="s">
+        <v>60</v>
+      </c>
+      <c r="H203">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="204" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F204">
+        <v>231</v>
+      </c>
+      <c r="G204" t="s">
+        <v>206</v>
+      </c>
+      <c r="H204">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
